--- a/開発補助.xlsx
+++ b/開発補助.xlsx
@@ -5,39 +5,123 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\CHaser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\CHaser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777E2AC-7DB2-41F5-88D2-8FDB4C0F6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9FE42-DDDD-4D4F-A14B-4CCEE219F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="方眼紙" sheetId="1" r:id="rId1"/>
+    <sheet name="マップ保存" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の定義は奇数だと、中心位置が取れる</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値は全てブロック（2）を設定する</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なモジュール</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import math</t>
+  </si>
+  <si>
+    <t>中心位置を求めるのは、</t>
+    <rPh sb="0" eb="4">
+      <t>チュウシンイチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>col = math.ceil(cols / 2) - 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row = math.ceil(rows / 2) - 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の数は、必ず奇数とする。多くてもよいので、 「101」 くらいが余裕あるかも</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +136,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -88,9 +185,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -376,7 +492,7 @@
   </sheetPr>
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1519,4 +1635,3325 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36AD77D-4DEA-4D6C-BE2F-44159DE3D122}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AZ66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="19.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="2"/>
+    <col min="2" max="16384" width="3.25" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B3" s="4" t="str">
+        <f>COUNTA(15:15)&amp;"の中央は、"&amp;ROUNDUP(COUNTA(15:15)/2,0)-1</f>
+        <v>51の中央は、25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:52" ht="19.5" customHeight="1">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:52" s="2" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>RIGHT(TEXT(+B15+1,"00"),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" ref="D15:P15" si="0">RIGHT(TEXT(+C15+1,"00"),1)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f>RIGHT(TEXT(+P15+1,"00"),1)</f>
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f>RIGHT(TEXT(+Q15+1,"00"),1)</f>
+        <v>6</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f t="shared" ref="S15:AZ15" si="1">RIGHT(TEXT(+R15+1,"00"),1)</f>
+        <v>7</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="V15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AE15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AF15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AI15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AK15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AL15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AM15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AN15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AO15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AP15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AS15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AT15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AU15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AV15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AW15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AX15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AY15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AZ15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+    </row>
+    <row r="17" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A17" s="2" t="str">
+        <f>RIGHT(TEXT(A16+1,"00"),1)</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+    </row>
+    <row r="18" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A18" s="2" t="str">
+        <f t="shared" ref="A18:A33" si="2">RIGHT(TEXT(A17+1,"00"),1)</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+    </row>
+    <row r="19" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+    </row>
+    <row r="20" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+    </row>
+    <row r="21" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+    </row>
+    <row r="22" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+    </row>
+    <row r="23" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+    </row>
+    <row r="24" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+    </row>
+    <row r="25" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+    </row>
+    <row r="26" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+    </row>
+    <row r="27" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+    </row>
+    <row r="28" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+    </row>
+    <row r="29" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+    </row>
+    <row r="30" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+    </row>
+    <row r="31" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+    </row>
+    <row r="32" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+    </row>
+    <row r="33" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+    </row>
+    <row r="34" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A34" s="2" t="str">
+        <f>RIGHT(TEXT(A33+1,"00"),1)</f>
+        <v>8</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+    </row>
+    <row r="35" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A35" s="2" t="str">
+        <f t="shared" ref="A35:A66" si="3">RIGHT(TEXT(A34+1,"00"),1)</f>
+        <v>9</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+    </row>
+    <row r="36" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+    </row>
+    <row r="37" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="7"/>
+    </row>
+    <row r="38" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
+      <c r="AZ38" s="7"/>
+    </row>
+    <row r="39" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+    </row>
+    <row r="40" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+    </row>
+    <row r="41" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+    </row>
+    <row r="42" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="7"/>
+    </row>
+    <row r="43" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="7"/>
+    </row>
+    <row r="44" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7"/>
+      <c r="AZ44" s="7"/>
+    </row>
+    <row r="45" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+    </row>
+    <row r="46" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+    </row>
+    <row r="47" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+    </row>
+    <row r="48" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+    </row>
+    <row r="49" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+    </row>
+    <row r="50" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+    </row>
+    <row r="51" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+    </row>
+    <row r="52" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+    </row>
+    <row r="53" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
+      <c r="AZ53" s="7"/>
+    </row>
+    <row r="54" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="7"/>
+    </row>
+    <row r="55" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="7"/>
+      <c r="AX55" s="7"/>
+      <c r="AY55" s="7"/>
+      <c r="AZ55" s="7"/>
+    </row>
+    <row r="56" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+    </row>
+    <row r="57" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7"/>
+      <c r="AZ57" s="7"/>
+    </row>
+    <row r="58" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7"/>
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="7"/>
+      <c r="AY58" s="7"/>
+      <c r="AZ58" s="7"/>
+    </row>
+    <row r="59" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="7"/>
+      <c r="AX59" s="7"/>
+      <c r="AY59" s="7"/>
+      <c r="AZ59" s="7"/>
+    </row>
+    <row r="60" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="7"/>
+      <c r="AY60" s="7"/>
+      <c r="AZ60" s="7"/>
+    </row>
+    <row r="61" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="7"/>
+    </row>
+    <row r="62" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+    </row>
+    <row r="63" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7"/>
+      <c r="AW63" s="7"/>
+      <c r="AX63" s="7"/>
+      <c r="AY63" s="7"/>
+      <c r="AZ63" s="7"/>
+    </row>
+    <row r="64" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="7"/>
+      <c r="AX64" s="7"/>
+      <c r="AY64" s="7"/>
+      <c r="AZ64" s="7"/>
+    </row>
+    <row r="65" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7"/>
+      <c r="AW65" s="7"/>
+      <c r="AX65" s="7"/>
+      <c r="AY65" s="7"/>
+      <c r="AZ65" s="7"/>
+    </row>
+    <row r="66" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="7"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="7"/>
+      <c r="AW66" s="7"/>
+      <c r="AX66" s="7"/>
+      <c r="AY66" s="7"/>
+      <c r="AZ66" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>